--- a/dados/csv/2023/analise_descritiva/dados/flex-uf.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/flex-uf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>modalidade</t>
   </si>
@@ -37,25 +37,43 @@
     <t>arrecadado_sucesso</t>
   </si>
   <si>
-    <t>media_sucesso</t>
-  </si>
-  <si>
-    <t>std_sucesso</t>
-  </si>
-  <si>
-    <t>min_sucesso</t>
-  </si>
-  <si>
-    <t>max_sucesso</t>
+    <t>arrecadado_avg</t>
+  </si>
+  <si>
+    <t>arrecadado_std</t>
+  </si>
+  <si>
+    <t>arrecadado_min</t>
+  </si>
+  <si>
+    <t>arrecadado_max</t>
   </si>
   <si>
     <t>apoio_medio</t>
   </si>
   <si>
+    <t>apoio_std</t>
+  </si>
+  <si>
+    <t>apoio_min</t>
+  </si>
+  <si>
+    <t>apoio_max</t>
+  </si>
+  <si>
     <t>contribuicoes</t>
   </si>
   <si>
-    <t>media_contribuicoes</t>
+    <t>contribuicoes_med</t>
+  </si>
+  <si>
+    <t>contribuicoes_std</t>
+  </si>
+  <si>
+    <t>contribuicoes_min</t>
+  </si>
+  <si>
+    <t>contribuicoes_max</t>
   </si>
   <si>
     <t>menor_ano</t>
@@ -499,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,11 +533,17 @@
     <col min="10" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="9.140625" style="3"/>
     <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" style="3"/>
+    <col min="15" max="15" width="9.140625" style="3"/>
+    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="9.140625" style="1"/>
+    <col min="19" max="19" width="9.140625" style="1"/>
+    <col min="20" max="20" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:22">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -568,13 +592,31 @@
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
@@ -604,27 +646,45 @@
         <v>8487.415853675509</v>
       </c>
       <c r="L2" s="3">
-        <v>48.62854587773874</v>
-      </c>
-      <c r="M2" s="1">
+        <v>49.34563627103121</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3.157738703897078</v>
+      </c>
+      <c r="N2" s="3">
+        <v>45.33997822063326</v>
+      </c>
+      <c r="O2" s="3">
+        <v>52.78244028225378</v>
+      </c>
+      <c r="P2" s="1">
         <v>424</v>
       </c>
-      <c r="N2" s="1">
+      <c r="Q2" s="1">
         <v>84.8</v>
       </c>
-      <c r="O2">
+      <c r="R2" s="1">
+        <v>61.60925255186918</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="1">
+        <v>171</v>
+      </c>
+      <c r="U2">
         <v>2020</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -654,27 +714,45 @@
         <v>3579.708858962807</v>
       </c>
       <c r="L3" s="3">
-        <v>75.52588997769142</v>
-      </c>
-      <c r="M3" s="1">
+        <v>75.92822821742841</v>
+      </c>
+      <c r="M3" s="3">
+        <v>33.04151967611716</v>
+      </c>
+      <c r="N3" s="3">
+        <v>44.41698989306864</v>
+      </c>
+      <c r="O3" s="3">
+        <v>110.3124119232409</v>
+      </c>
+      <c r="P3" s="1">
         <v>79</v>
       </c>
-      <c r="N3" s="1">
+      <c r="Q3" s="1">
         <v>26.33333333333333</v>
       </c>
-      <c r="O3">
+      <c r="R3" s="1">
+        <v>19.65536398374076</v>
+      </c>
+      <c r="S3" s="1">
+        <v>14</v>
+      </c>
+      <c r="T3" s="1">
+        <v>49</v>
+      </c>
+      <c r="U3">
         <v>2019</v>
       </c>
-      <c r="P3">
+      <c r="V3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>25</v>
@@ -704,27 +782,45 @@
         <v>39043.45605445375</v>
       </c>
       <c r="L4" s="3">
-        <v>84.47821405732526</v>
-      </c>
-      <c r="M4" s="1">
+        <v>67.78664768952572</v>
+      </c>
+      <c r="M4" s="3">
+        <v>31.70775623287225</v>
+      </c>
+      <c r="N4" s="3">
+        <v>23.84123780968962</v>
+      </c>
+      <c r="O4" s="3">
+        <v>139.5126743984584</v>
+      </c>
+      <c r="P4" s="1">
         <v>1544</v>
       </c>
-      <c r="N4" s="1">
+      <c r="Q4" s="1">
         <v>73.52380952380952</v>
       </c>
-      <c r="O4">
+      <c r="R4" s="1">
+        <v>83.77267994257976</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <v>366</v>
+      </c>
+      <c r="U4">
         <v>2017</v>
       </c>
-      <c r="P4">
+      <c r="V4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>38</v>
@@ -754,27 +850,45 @@
         <v>42352.39395260654</v>
       </c>
       <c r="L5" s="3">
-        <v>83.21671397873456</v>
-      </c>
-      <c r="M5" s="1">
+        <v>69.40537068990857</v>
+      </c>
+      <c r="M5" s="3">
+        <v>29.60589045154097</v>
+      </c>
+      <c r="N5" s="3">
+        <v>27.45405411991957</v>
+      </c>
+      <c r="O5" s="3">
+        <v>157.4361495951104</v>
+      </c>
+      <c r="P5" s="1">
         <v>3519</v>
       </c>
-      <c r="N5" s="1">
+      <c r="Q5" s="1">
         <v>95.10810810810811</v>
       </c>
-      <c r="O5">
+      <c r="R5" s="1">
+        <v>134.3866279276542</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="1">
+        <v>575</v>
+      </c>
+      <c r="U5">
         <v>2017</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
@@ -804,27 +918,45 @@
         <v>19696.83604013923</v>
       </c>
       <c r="L6" s="3">
-        <v>72.39061861953026</v>
-      </c>
-      <c r="M6" s="1">
+        <v>70.98726579114015</v>
+      </c>
+      <c r="M6" s="3">
+        <v>26.1115491044645</v>
+      </c>
+      <c r="N6" s="3">
+        <v>11.93343625774652</v>
+      </c>
+      <c r="O6" s="3">
+        <v>119.480863051166</v>
+      </c>
+      <c r="P6" s="1">
         <v>1958</v>
       </c>
-      <c r="N6" s="1">
+      <c r="Q6" s="1">
         <v>67.51724137931035</v>
       </c>
-      <c r="O6">
+      <c r="R6" s="1">
+        <v>87.9202644809713</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>303</v>
+      </c>
+      <c r="U6">
         <v>2017</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -854,27 +986,45 @@
         <v>10374.39174251279</v>
       </c>
       <c r="L7" s="3">
-        <v>58.48950453928499</v>
-      </c>
-      <c r="M7" s="1">
+        <v>57.05344062495174</v>
+      </c>
+      <c r="M7" s="3">
+        <v>9.218686058143824</v>
+      </c>
+      <c r="N7" s="3">
+        <v>48.67908690791425</v>
+      </c>
+      <c r="O7" s="3">
+        <v>66.93155962911479</v>
+      </c>
+      <c r="P7" s="1">
         <v>329</v>
       </c>
-      <c r="N7" s="1">
+      <c r="Q7" s="1">
         <v>109.6666666666667</v>
       </c>
-      <c r="O7">
+      <c r="R7" s="1">
+        <v>48.80915214724933</v>
+      </c>
+      <c r="S7" s="1">
+        <v>58</v>
+      </c>
+      <c r="T7" s="1">
+        <v>155</v>
+      </c>
+      <c r="U7">
         <v>2017</v>
       </c>
-      <c r="P7">
+      <c r="V7">
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -904,27 +1054,45 @@
         <v>11657.12615038187</v>
       </c>
       <c r="L8" s="3">
-        <v>97.17345216621055</v>
-      </c>
-      <c r="M8" s="1">
+        <v>84.36991403297129</v>
+      </c>
+      <c r="M8" s="3">
+        <v>38.84510413047353</v>
+      </c>
+      <c r="N8" s="3">
+        <v>29.26216513679551</v>
+      </c>
+      <c r="O8" s="3">
+        <v>121.4283973998111</v>
+      </c>
+      <c r="P8" s="1">
         <v>193</v>
       </c>
-      <c r="N8" s="1">
+      <c r="Q8" s="1">
         <v>38.6</v>
       </c>
-      <c r="O8">
+      <c r="R8" s="1">
+        <v>32.65424934062947</v>
+      </c>
+      <c r="S8" s="1">
+        <v>16</v>
+      </c>
+      <c r="T8" s="1">
+        <v>96</v>
+      </c>
+      <c r="U8">
         <v>2019</v>
       </c>
-      <c r="P8">
+      <c r="V8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -954,27 +1122,45 @@
         <v>3759.167627206689</v>
       </c>
       <c r="L9" s="3">
-        <v>50.28281516829033</v>
-      </c>
-      <c r="M9" s="1">
+        <v>48.84608159861521</v>
+      </c>
+      <c r="M9" s="3">
+        <v>6.201395329160901</v>
+      </c>
+      <c r="N9" s="3">
+        <v>43.30757970997428</v>
+      </c>
+      <c r="O9" s="3">
+        <v>56.35300160617668</v>
+      </c>
+      <c r="P9" s="1">
         <v>204</v>
       </c>
-      <c r="N9" s="1">
+      <c r="Q9" s="1">
         <v>51</v>
       </c>
-      <c r="O9">
+      <c r="R9" s="1">
+        <v>19.27001124372618</v>
+      </c>
+      <c r="S9" s="1">
+        <v>32</v>
+      </c>
+      <c r="T9" s="1">
+        <v>73</v>
+      </c>
+      <c r="U9">
         <v>2021</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>71</v>
@@ -1004,27 +1190,45 @@
         <v>55069.70060053065</v>
       </c>
       <c r="L10" s="3">
-        <v>83.59701220376321</v>
-      </c>
-      <c r="M10" s="1">
+        <v>69.83870009492911</v>
+      </c>
+      <c r="M10" s="3">
+        <v>35.4080170462333</v>
+      </c>
+      <c r="N10" s="3">
+        <v>12.19662302883409</v>
+      </c>
+      <c r="O10" s="3">
+        <v>196.4212117364618</v>
+      </c>
+      <c r="P10" s="1">
         <v>5773</v>
       </c>
-      <c r="N10" s="1">
+      <c r="Q10" s="1">
         <v>86.16417910447761</v>
       </c>
-      <c r="O10">
+      <c r="R10" s="1">
+        <v>108.5202951295182</v>
+      </c>
+      <c r="S10" s="1">
+        <v>1</v>
+      </c>
+      <c r="T10" s="1">
+        <v>571</v>
+      </c>
+      <c r="U10">
         <v>2016</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -1054,27 +1258,45 @@
         <v>8364.984297387962</v>
       </c>
       <c r="L11" s="3">
-        <v>65.44227133230056</v>
-      </c>
-      <c r="M11" s="1">
+        <v>65.64033709136109</v>
+      </c>
+      <c r="M11" s="3">
+        <v>14.83568373171277</v>
+      </c>
+      <c r="N11" s="3">
+        <v>52.25756349732896</v>
+      </c>
+      <c r="O11" s="3">
+        <v>91.02088659474175</v>
+      </c>
+      <c r="P11" s="1">
         <v>336</v>
       </c>
-      <c r="N11" s="1">
+      <c r="Q11" s="1">
         <v>67.2</v>
       </c>
-      <c r="O11">
+      <c r="R11" s="1">
+        <v>47.15612367444974</v>
+      </c>
+      <c r="S11" s="1">
+        <v>10</v>
+      </c>
+      <c r="T11" s="1">
+        <v>141</v>
+      </c>
+      <c r="U11">
         <v>2020</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1104,27 +1326,45 @@
         <v>16770.93422522096</v>
       </c>
       <c r="L12" s="3">
-        <v>74.80571805931967</v>
-      </c>
-      <c r="M12" s="1">
+        <v>77.84263902306331</v>
+      </c>
+      <c r="M12" s="3">
+        <v>5.602932423344289</v>
+      </c>
+      <c r="N12" s="3">
+        <v>73.88076751198659</v>
+      </c>
+      <c r="O12" s="3">
+        <v>81.80451053414004</v>
+      </c>
+      <c r="P12" s="1">
         <v>257</v>
       </c>
-      <c r="N12" s="1">
+      <c r="Q12" s="1">
         <v>128.5</v>
       </c>
-      <c r="O12">
+      <c r="R12" s="1">
+        <v>139.3000358937499</v>
+      </c>
+      <c r="S12" s="1">
+        <v>30</v>
+      </c>
+      <c r="T12" s="1">
+        <v>227</v>
+      </c>
+      <c r="U12">
         <v>2019</v>
       </c>
-      <c r="P12">
+      <c r="V12">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -1154,27 +1394,45 @@
         <v>12609.40250609754</v>
       </c>
       <c r="L13" s="3">
-        <v>51.18143943940708</v>
-      </c>
-      <c r="M13" s="1">
+        <v>45.35433730016975</v>
+      </c>
+      <c r="M13" s="3">
+        <v>25.46833055396829</v>
+      </c>
+      <c r="N13" s="3">
+        <v>20.15182714817413</v>
+      </c>
+      <c r="O13" s="3">
+        <v>83.50597686157313</v>
+      </c>
+      <c r="P13" s="1">
         <v>439</v>
       </c>
-      <c r="N13" s="1">
+      <c r="Q13" s="1">
         <v>87.8</v>
       </c>
-      <c r="O13">
+      <c r="R13" s="1">
+        <v>102.1846368100411</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>236</v>
+      </c>
+      <c r="U13">
         <v>2019</v>
       </c>
-      <c r="P13">
+      <c r="V13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1">
         <v>26</v>
@@ -1204,27 +1462,45 @@
         <v>37589.60045184651</v>
       </c>
       <c r="L14" s="3">
-        <v>67.78225121307666</v>
-      </c>
-      <c r="M14" s="1">
+        <v>51.46088164215199</v>
+      </c>
+      <c r="M14" s="3">
+        <v>23.24567672487991</v>
+      </c>
+      <c r="N14" s="3">
+        <v>13.05503087794559</v>
+      </c>
+      <c r="O14" s="3">
+        <v>111.3662854612667</v>
+      </c>
+      <c r="P14" s="1">
         <v>1364</v>
       </c>
-      <c r="N14" s="1">
+      <c r="Q14" s="1">
         <v>54.56</v>
       </c>
-      <c r="O14">
+      <c r="R14" s="1">
+        <v>117.5574611271725</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2</v>
+      </c>
+      <c r="T14" s="1">
+        <v>539</v>
+      </c>
+      <c r="U14">
         <v>2016</v>
       </c>
-      <c r="P14">
+      <c r="V14">
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" s="1">
         <v>60</v>
@@ -1254,27 +1530,45 @@
         <v>26068.8331005513</v>
       </c>
       <c r="L15" s="3">
-        <v>63.62145417767135</v>
-      </c>
-      <c r="M15" s="1">
+        <v>61.5562500780191</v>
+      </c>
+      <c r="M15" s="3">
+        <v>23.34464831810631</v>
+      </c>
+      <c r="N15" s="3">
+        <v>16.18065842403185</v>
+      </c>
+      <c r="O15" s="3">
+        <v>138.0184648379384</v>
+      </c>
+      <c r="P15" s="1">
         <v>4928</v>
       </c>
-      <c r="N15" s="1">
+      <c r="Q15" s="1">
         <v>84.96551724137932</v>
       </c>
-      <c r="O15">
+      <c r="R15" s="1">
+        <v>68.49560506255611</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>328</v>
+      </c>
+      <c r="U15">
         <v>2017</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1304,27 +1598,45 @@
         <v>13165.18530167379</v>
       </c>
       <c r="L16" s="3">
-        <v>53.45854668851414</v>
-      </c>
-      <c r="M16" s="1">
+        <v>59.77015408752801</v>
+      </c>
+      <c r="M16" s="3">
+        <v>14.08491272336895</v>
+      </c>
+      <c r="N16" s="3">
+        <v>45.90673655161051</v>
+      </c>
+      <c r="O16" s="3">
+        <v>82.15413766761272</v>
+      </c>
+      <c r="P16" s="1">
         <v>555</v>
       </c>
-      <c r="N16" s="1">
+      <c r="Q16" s="1">
         <v>92.5</v>
       </c>
-      <c r="O16">
+      <c r="R16" s="1">
+        <v>100.0674772341144</v>
+      </c>
+      <c r="S16" s="1">
+        <v>10</v>
+      </c>
+      <c r="T16" s="1">
+        <v>284</v>
+      </c>
+      <c r="U16">
         <v>2017</v>
       </c>
-      <c r="P16">
+      <c r="V16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C17" s="1">
         <v>64</v>
@@ -1354,27 +1666,45 @@
         <v>59310.53192065474</v>
       </c>
       <c r="L17" s="3">
-        <v>71.34519490098421</v>
-      </c>
-      <c r="M17" s="1">
+        <v>82.66311410722277</v>
+      </c>
+      <c r="M17" s="3">
+        <v>41.59443116618839</v>
+      </c>
+      <c r="N17" s="3">
+        <v>20.33774597757668</v>
+      </c>
+      <c r="O17" s="3">
+        <v>201.2220224911509</v>
+      </c>
+      <c r="P17" s="1">
         <v>9650</v>
       </c>
-      <c r="N17" s="1">
+      <c r="Q17" s="1">
         <v>163.5593220338983</v>
       </c>
-      <c r="O17">
+      <c r="R17" s="1">
+        <v>223.4736944471927</v>
+      </c>
+      <c r="S17" s="1">
+        <v>1</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1318</v>
+      </c>
+      <c r="U17">
         <v>2016</v>
       </c>
-      <c r="P17">
+      <c r="V17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1">
         <v>163</v>
@@ -1404,27 +1734,45 @@
         <v>142477.5688974962</v>
       </c>
       <c r="L18" s="3">
-        <v>85.31279837161534</v>
-      </c>
-      <c r="M18" s="1">
+        <v>78.50979961663667</v>
+      </c>
+      <c r="M18" s="3">
+        <v>35.09459453111103</v>
+      </c>
+      <c r="N18" s="3">
+        <v>10.77163914429046</v>
+      </c>
+      <c r="O18" s="3">
+        <v>233.3973531230909</v>
+      </c>
+      <c r="P18" s="1">
         <v>24870</v>
       </c>
-      <c r="N18" s="1">
+      <c r="Q18" s="1">
         <v>165.8</v>
       </c>
-      <c r="O18">
+      <c r="R18" s="1">
+        <v>239.8765062590198</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2120</v>
+      </c>
+      <c r="U18">
         <v>2016</v>
       </c>
-      <c r="P18">
+      <c r="V18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -1454,27 +1802,45 @@
         <v>21166.42737277812</v>
       </c>
       <c r="L19" s="3">
-        <v>90.93472971677974</v>
-      </c>
-      <c r="M19" s="1">
+        <v>82.28079522919644</v>
+      </c>
+      <c r="M19" s="3">
+        <v>10.15766237346972</v>
+      </c>
+      <c r="N19" s="3">
+        <v>74.11921242291902</v>
+      </c>
+      <c r="O19" s="3">
+        <v>93.65675828662884</v>
+      </c>
+      <c r="P19" s="1">
         <v>277</v>
       </c>
-      <c r="N19" s="1">
+      <c r="Q19" s="1">
         <v>92.33333333333333</v>
       </c>
-      <c r="O19">
+      <c r="R19" s="1">
+        <v>118.1199954848176</v>
+      </c>
+      <c r="S19" s="1">
+        <v>2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>226</v>
+      </c>
+      <c r="U19">
         <v>2016</v>
       </c>
-      <c r="P19">
+      <c r="V19">
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1504,27 +1870,45 @@
         <v>3310.9589268623</v>
       </c>
       <c r="L20" s="3">
-        <v>35.90081422431659</v>
-      </c>
-      <c r="M20" s="1">
+        <v>41.02094512827082</v>
+      </c>
+      <c r="M20" s="3">
+        <v>18.86799504524634</v>
+      </c>
+      <c r="N20" s="3">
+        <v>21.99487001791516</v>
+      </c>
+      <c r="O20" s="3">
+        <v>65.85076384224313</v>
+      </c>
+      <c r="P20" s="1">
         <v>157</v>
       </c>
-      <c r="N20" s="1">
+      <c r="Q20" s="1">
         <v>39.25</v>
       </c>
-      <c r="O20">
+      <c r="R20" s="1">
+        <v>29.91515780781821</v>
+      </c>
+      <c r="S20" s="1">
+        <v>2</v>
+      </c>
+      <c r="T20" s="1">
+        <v>75</v>
+      </c>
+      <c r="U20">
         <v>2019</v>
       </c>
-      <c r="P20">
+      <c r="V20">
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>142</v>
@@ -1554,27 +1938,45 @@
         <v>118699.0415875544</v>
       </c>
       <c r="L21" s="3">
-        <v>97.18316933862098</v>
-      </c>
-      <c r="M21" s="1">
+        <v>81.78942383109759</v>
+      </c>
+      <c r="M21" s="3">
+        <v>45.73065301198442</v>
+      </c>
+      <c r="N21" s="3">
+        <v>18.89233795141325</v>
+      </c>
+      <c r="O21" s="3">
+        <v>306.2848483936102</v>
+      </c>
+      <c r="P21" s="1">
         <v>18138</v>
       </c>
-      <c r="N21" s="1">
+      <c r="Q21" s="1">
         <v>128.6382978723404</v>
       </c>
-      <c r="O21">
+      <c r="R21" s="1">
+        <v>153.2010945781367</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1004</v>
+      </c>
+      <c r="U21">
         <v>2016</v>
       </c>
-      <c r="P21">
+      <c r="V21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1604,27 +2006,45 @@
         <v>28385.54066619448</v>
       </c>
       <c r="L22" s="3">
-        <v>72.3999784864688</v>
-      </c>
-      <c r="M22" s="1">
+        <v>85.51665070147128</v>
+      </c>
+      <c r="M22" s="3">
+        <v>52.63790605978169</v>
+      </c>
+      <c r="N22" s="3">
+        <v>21.00493274015408</v>
+      </c>
+      <c r="O22" s="3">
+        <v>254.2443749773306</v>
+      </c>
+      <c r="P22" s="1">
         <v>1224</v>
       </c>
-      <c r="N22" s="1">
+      <c r="Q22" s="1">
         <v>68</v>
       </c>
-      <c r="O22">
+      <c r="R22" s="1">
+        <v>98.6216776074999</v>
+      </c>
+      <c r="S22" s="1">
+        <v>1</v>
+      </c>
+      <c r="T22" s="1">
+        <v>344</v>
+      </c>
+      <c r="U22">
         <v>2016</v>
       </c>
-      <c r="P22">
+      <c r="V22">
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -1656,25 +2076,43 @@
       <c r="L23" s="3">
         <v>36.90833212357519</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>36.90833212357519</v>
+      </c>
+      <c r="O23" s="3">
+        <v>36.90833212357519</v>
+      </c>
+      <c r="P23" s="1">
         <v>55</v>
       </c>
-      <c r="N23" s="1">
+      <c r="Q23" s="1">
         <v>55</v>
       </c>
-      <c r="O23">
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>55</v>
+      </c>
+      <c r="T23" s="1">
+        <v>55</v>
+      </c>
+      <c r="U23">
         <v>2023</v>
       </c>
-      <c r="P23">
+      <c r="V23">
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C24" s="1">
         <v>766</v>
@@ -1704,18 +2142,36 @@
         <v>708972.7845446636</v>
       </c>
       <c r="L24" s="3">
-        <v>94.57221187379758</v>
-      </c>
-      <c r="M24" s="1">
+        <v>80.55678320085916</v>
+      </c>
+      <c r="M24" s="3">
+        <v>41.26322575364973</v>
+      </c>
+      <c r="N24" s="3">
+        <v>11.52676430516467</v>
+      </c>
+      <c r="O24" s="3">
+        <v>461.5197709071476</v>
+      </c>
+      <c r="P24" s="1">
         <v>127373</v>
       </c>
-      <c r="N24" s="1">
+      <c r="Q24" s="1">
         <v>174.0068306010929</v>
       </c>
-      <c r="O24">
+      <c r="R24" s="1">
+        <v>419.7037665583493</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>7954</v>
+      </c>
+      <c r="U24">
         <v>2016</v>
       </c>
-      <c r="P24">
+      <c r="V24">
         <v>2023</v>
       </c>
     </row>

--- a/dados/csv/2023/analise_descritiva/dados/flex-uf.xlsx
+++ b/dados/csv/2023/analise_descritiva/dados/flex-uf.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>modalidade</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>taxa_sucesso</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>meta_avg</t>
+  </si>
+  <si>
+    <t>meta_std</t>
+  </si>
+  <si>
+    <t>meta_min</t>
+  </si>
+  <si>
+    <t>meta_max</t>
   </si>
   <si>
     <t>arrecadado_sucesso</t>
@@ -517,7 +532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -536,14 +551,19 @@
     <col min="13" max="13" width="9.140625" style="3"/>
     <col min="14" max="14" width="9.140625" style="3"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="9.140625" style="1"/>
-    <col min="20" max="20" width="9.140625" style="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
+    <col min="17" max="17" width="9.140625" style="3"/>
+    <col min="18" max="18" width="9.140625" style="3"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
+    <col min="20" max="20" width="9.140625" style="3"/>
+    <col min="21" max="21" width="9.140625" style="1"/>
+    <col min="22" max="22" width="9.140625" style="1"/>
+    <col min="23" max="23" width="9.140625" style="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="25" max="25" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:27">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -610,13 +630,28 @@
       <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
         <v>6</v>
@@ -631,60 +666,75 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="G2" s="3">
+        <v>52257.21707536031</v>
+      </c>
+      <c r="H2" s="3">
+        <v>10451.44341507206</v>
+      </c>
+      <c r="I2" s="3">
+        <v>12140.81458853258</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1583.473208467613</v>
+      </c>
+      <c r="K2" s="3">
+        <v>31579.06372891594</v>
+      </c>
+      <c r="L2" s="3">
         <v>20618.50345216123</v>
       </c>
-      <c r="H2" s="3">
-        <v>4123.700690432246</v>
-      </c>
-      <c r="I2" s="3">
+      <c r="M2" s="3">
+        <v>4123.700690432245</v>
+      </c>
+      <c r="N2" s="3">
         <v>3042.208550413076</v>
-      </c>
-      <c r="J2" s="3">
-        <v>52.78244028225378</v>
-      </c>
-      <c r="K2" s="3">
-        <v>8487.415853675509</v>
-      </c>
-      <c r="L2" s="3">
-        <v>49.34563627103121</v>
-      </c>
-      <c r="M2" s="3">
-        <v>3.157738703897078</v>
-      </c>
-      <c r="N2" s="3">
-        <v>45.33997822063326</v>
       </c>
       <c r="O2" s="3">
         <v>52.78244028225378</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="3">
+        <v>8487.415853675509</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>49.34563627103121</v>
+      </c>
+      <c r="R2" s="3">
+        <v>3.157738703897078</v>
+      </c>
+      <c r="S2" s="3">
+        <v>45.33997822063326</v>
+      </c>
+      <c r="T2" s="3">
+        <v>52.78244028225378</v>
+      </c>
+      <c r="U2" s="1">
         <v>424</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="V2" s="1">
         <v>84.8</v>
       </c>
-      <c r="R2" s="1">
+      <c r="W2" s="1">
         <v>61.60925255186918</v>
       </c>
-      <c r="S2" s="1">
+      <c r="X2" s="1">
         <v>1</v>
       </c>
-      <c r="T2" s="1">
+      <c r="Y2" s="1">
         <v>171</v>
       </c>
-      <c r="U2">
+      <c r="Z2">
         <v>2020</v>
       </c>
-      <c r="V2">
+      <c r="AA2">
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:27">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -699,60 +749,75 @@
         <v>0.75</v>
       </c>
       <c r="G3" s="3">
+        <v>8812.635949779957</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2937.545316593319</v>
+      </c>
+      <c r="I3" s="3">
+        <v>432.1821074757387</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2439.324605766819</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3211.423927896389</v>
+      </c>
+      <c r="L3" s="3">
         <v>5966.545308237623</v>
       </c>
-      <c r="H3" s="3">
+      <c r="M3" s="3">
         <v>1988.848436079207</v>
       </c>
-      <c r="I3" s="3">
+      <c r="N3" s="3">
         <v>1491.587000068527</v>
       </c>
-      <c r="J3" s="3">
+      <c r="O3" s="3">
         <v>621.8378585029609</v>
       </c>
-      <c r="K3" s="3">
+      <c r="P3" s="3">
         <v>3579.708858962807</v>
       </c>
-      <c r="L3" s="3">
+      <c r="Q3" s="3">
         <v>75.92822821742841</v>
       </c>
-      <c r="M3" s="3">
+      <c r="R3" s="3">
         <v>33.04151967611716</v>
       </c>
-      <c r="N3" s="3">
+      <c r="S3" s="3">
         <v>44.41698989306864</v>
       </c>
-      <c r="O3" s="3">
+      <c r="T3" s="3">
         <v>110.3124119232409</v>
       </c>
-      <c r="P3" s="1">
+      <c r="U3" s="1">
         <v>79</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="V3" s="1">
         <v>26.33333333333333</v>
       </c>
-      <c r="R3" s="1">
+      <c r="W3" s="1">
         <v>19.65536398374076</v>
       </c>
-      <c r="S3" s="1">
+      <c r="X3" s="1">
         <v>14</v>
       </c>
-      <c r="T3" s="1">
+      <c r="Y3" s="1">
         <v>49</v>
       </c>
-      <c r="U3">
+      <c r="Z3">
         <v>2019</v>
       </c>
-      <c r="V3">
+      <c r="AA3">
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1">
         <v>25</v>
@@ -767,60 +832,75 @@
         <v>0.84</v>
       </c>
       <c r="G4" s="3">
+        <v>116950.5193414167</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5569.072349591272</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6074.365640296416</v>
+      </c>
+      <c r="J4" s="3">
+        <v>65.5801626947223</v>
+      </c>
+      <c r="K4" s="3">
+        <v>21543.27828858093</v>
+      </c>
+      <c r="L4" s="3">
         <v>130434.3625045102</v>
       </c>
-      <c r="H4" s="3">
-        <v>6211.16011926239</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="M4" s="3">
+        <v>6211.160119262391</v>
+      </c>
+      <c r="N4" s="3">
         <v>9050.773123984487</v>
       </c>
-      <c r="J4" s="3">
+      <c r="O4" s="3">
         <v>28.49210492799546</v>
       </c>
-      <c r="K4" s="3">
+      <c r="P4" s="3">
         <v>39043.45605445375</v>
       </c>
-      <c r="L4" s="3">
-        <v>67.78664768952572</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="Q4" s="3">
+        <v>67.78664768952574</v>
+      </c>
+      <c r="R4" s="3">
         <v>31.70775623287225</v>
       </c>
-      <c r="N4" s="3">
+      <c r="S4" s="3">
         <v>23.84123780968962</v>
       </c>
-      <c r="O4" s="3">
+      <c r="T4" s="3">
         <v>139.5126743984584</v>
       </c>
-      <c r="P4" s="1">
+      <c r="U4" s="1">
         <v>1544</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="V4" s="1">
         <v>73.52380952380952</v>
       </c>
-      <c r="R4" s="1">
+      <c r="W4" s="1">
         <v>83.77267994257976</v>
       </c>
-      <c r="S4" s="1">
+      <c r="X4" s="1">
         <v>1</v>
       </c>
-      <c r="T4" s="1">
+      <c r="Y4" s="1">
         <v>366</v>
       </c>
-      <c r="U4">
+      <c r="Z4">
         <v>2017</v>
       </c>
-      <c r="V4">
+      <c r="AA4">
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1">
         <v>38</v>
@@ -835,60 +915,75 @@
         <v>0.9736842105263158</v>
       </c>
       <c r="G5" s="3">
+        <v>429522.2045961704</v>
+      </c>
+      <c r="H5" s="3">
+        <v>11608.70823232893</v>
+      </c>
+      <c r="I5" s="3">
+        <v>12443.30655120987</v>
+      </c>
+      <c r="J5" s="3">
+        <v>136.0097692540146</v>
+      </c>
+      <c r="K5" s="3">
+        <v>37124.06060648225</v>
+      </c>
+      <c r="L5" s="3">
         <v>292839.6164911669</v>
       </c>
-      <c r="H5" s="3">
+      <c r="M5" s="3">
         <v>7914.584229490998</v>
       </c>
-      <c r="I5" s="3">
+      <c r="N5" s="3">
         <v>11620.26285693438</v>
       </c>
-      <c r="J5" s="3">
+      <c r="O5" s="3">
         <v>60.22207793633493</v>
       </c>
-      <c r="K5" s="3">
+      <c r="P5" s="3">
         <v>42352.39395260654</v>
       </c>
-      <c r="L5" s="3">
-        <v>69.40537068990857</v>
-      </c>
-      <c r="M5" s="3">
-        <v>29.60589045154097</v>
-      </c>
-      <c r="N5" s="3">
+      <c r="Q5" s="3">
+        <v>69.40537068990859</v>
+      </c>
+      <c r="R5" s="3">
+        <v>29.60589045154096</v>
+      </c>
+      <c r="S5" s="3">
         <v>27.45405411991957</v>
       </c>
-      <c r="O5" s="3">
+      <c r="T5" s="3">
         <v>157.4361495951104</v>
       </c>
-      <c r="P5" s="1">
+      <c r="U5" s="1">
         <v>3519</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="1">
         <v>95.10810810810811</v>
       </c>
-      <c r="R5" s="1">
+      <c r="W5" s="1">
         <v>134.3866279276542</v>
       </c>
-      <c r="S5" s="1">
+      <c r="X5" s="1">
         <v>1</v>
       </c>
-      <c r="T5" s="1">
+      <c r="Y5" s="1">
         <v>575</v>
       </c>
-      <c r="U5">
+      <c r="Z5">
         <v>2017</v>
       </c>
-      <c r="V5">
+      <c r="AA5">
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:27">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>30</v>
@@ -903,60 +998,75 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G6" s="3">
+        <v>251322.2897463054</v>
+      </c>
+      <c r="H6" s="3">
+        <v>8666.285853320875</v>
+      </c>
+      <c r="I6" s="3">
+        <v>11394.40108645946</v>
+      </c>
+      <c r="J6" s="3">
+        <v>100.329986902042</v>
+      </c>
+      <c r="K6" s="3">
+        <v>55186.13818663376</v>
+      </c>
+      <c r="L6" s="3">
         <v>141740.8312570402</v>
       </c>
-      <c r="H6" s="3">
+      <c r="M6" s="3">
         <v>4887.614870932422</v>
       </c>
-      <c r="I6" s="3">
+      <c r="N6" s="3">
         <v>6274.284880317962</v>
       </c>
-      <c r="J6" s="3">
+      <c r="O6" s="3">
         <v>11.93343625774652</v>
       </c>
-      <c r="K6" s="3">
+      <c r="P6" s="3">
         <v>19696.83604013923</v>
       </c>
-      <c r="L6" s="3">
+      <c r="Q6" s="3">
         <v>70.98726579114015</v>
       </c>
-      <c r="M6" s="3">
+      <c r="R6" s="3">
         <v>26.1115491044645</v>
       </c>
-      <c r="N6" s="3">
+      <c r="S6" s="3">
         <v>11.93343625774652</v>
       </c>
-      <c r="O6" s="3">
+      <c r="T6" s="3">
         <v>119.480863051166</v>
       </c>
-      <c r="P6" s="1">
+      <c r="U6" s="1">
         <v>1958</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="V6" s="1">
         <v>67.51724137931035</v>
       </c>
-      <c r="R6" s="1">
-        <v>87.9202644809713</v>
-      </c>
-      <c r="S6" s="1">
+      <c r="W6" s="1">
+        <v>87.92026448097128</v>
+      </c>
+      <c r="X6" s="1">
         <v>1</v>
       </c>
-      <c r="T6" s="1">
+      <c r="Y6" s="1">
         <v>303</v>
       </c>
-      <c r="U6">
+      <c r="Z6">
         <v>2017</v>
       </c>
-      <c r="V6">
+      <c r="AA6">
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -971,60 +1081,75 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="3">
+        <v>28245.09097840646</v>
+      </c>
+      <c r="H7" s="3">
+        <v>9415.030326135487</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5887.217163018437</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3011.103896816746</v>
+      </c>
+      <c r="K7" s="3">
+        <v>14592.24558558396</v>
+      </c>
+      <c r="L7" s="3">
         <v>19243.04699342476</v>
       </c>
-      <c r="H7" s="3">
+      <c r="M7" s="3">
         <v>6414.348997808254</v>
       </c>
-      <c r="I7" s="3">
+      <c r="N7" s="3">
         <v>3637.510180500911</v>
       </c>
-      <c r="J7" s="3">
+      <c r="O7" s="3">
         <v>3221.881169593919</v>
       </c>
-      <c r="K7" s="3">
+      <c r="P7" s="3">
         <v>10374.39174251279</v>
       </c>
-      <c r="L7" s="3">
+      <c r="Q7" s="3">
         <v>57.05344062495174</v>
       </c>
-      <c r="M7" s="3">
+      <c r="R7" s="3">
         <v>9.218686058143824</v>
       </c>
-      <c r="N7" s="3">
+      <c r="S7" s="3">
         <v>48.67908690791425</v>
       </c>
-      <c r="O7" s="3">
+      <c r="T7" s="3">
         <v>66.93155962911479</v>
       </c>
-      <c r="P7" s="1">
+      <c r="U7" s="1">
         <v>329</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="V7" s="1">
         <v>109.6666666666667</v>
       </c>
-      <c r="R7" s="1">
-        <v>48.80915214724933</v>
-      </c>
-      <c r="S7" s="1">
+      <c r="W7" s="1">
+        <v>48.80915214724932</v>
+      </c>
+      <c r="X7" s="1">
         <v>58</v>
       </c>
-      <c r="T7" s="1">
+      <c r="Y7" s="1">
         <v>155</v>
       </c>
-      <c r="U7">
+      <c r="Z7">
         <v>2017</v>
       </c>
-      <c r="V7">
+      <c r="AA7">
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1">
         <v>6</v>
@@ -1039,60 +1164,75 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="G8" s="3">
+        <v>74503.30202504773</v>
+      </c>
+      <c r="H8" s="3">
+        <v>14900.66040500954</v>
+      </c>
+      <c r="I8" s="3">
+        <v>20139.31708625895</v>
+      </c>
+      <c r="J8" s="3">
+        <v>377.969633016942</v>
+      </c>
+      <c r="K8" s="3">
+        <v>50446.27899594023</v>
+      </c>
+      <c r="L8" s="3">
         <v>18754.47626807864</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>3750.895253615728</v>
       </c>
-      <c r="I8" s="3">
+      <c r="N8" s="3">
         <v>4503.405087151546</v>
       </c>
-      <c r="J8" s="3">
+      <c r="O8" s="3">
         <v>907.1271192406608</v>
       </c>
-      <c r="K8" s="3">
+      <c r="P8" s="3">
         <v>11657.12615038187</v>
       </c>
-      <c r="L8" s="3">
-        <v>84.36991403297129</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="Q8" s="3">
+        <v>84.36991403297127</v>
+      </c>
+      <c r="R8" s="3">
         <v>38.84510413047353</v>
       </c>
-      <c r="N8" s="3">
+      <c r="S8" s="3">
         <v>29.26216513679551</v>
       </c>
-      <c r="O8" s="3">
+      <c r="T8" s="3">
         <v>121.4283973998111</v>
       </c>
-      <c r="P8" s="1">
+      <c r="U8" s="1">
         <v>193</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="V8" s="1">
         <v>38.6</v>
       </c>
-      <c r="R8" s="1">
+      <c r="W8" s="1">
         <v>32.65424934062947</v>
       </c>
-      <c r="S8" s="1">
+      <c r="X8" s="1">
         <v>16</v>
       </c>
-      <c r="T8" s="1">
+      <c r="Y8" s="1">
         <v>96</v>
       </c>
-      <c r="U8">
+      <c r="Z8">
         <v>2019</v>
       </c>
-      <c r="V8">
+      <c r="AA8">
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -1107,60 +1247,75 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
+        <v>17212.43707668917</v>
+      </c>
+      <c r="H9" s="3">
+        <v>4303.109269172293</v>
+      </c>
+      <c r="I9" s="3">
+        <v>4772.696049027597</v>
+      </c>
+      <c r="J9" s="3">
+        <v>702.7849234074116</v>
+      </c>
+      <c r="K9" s="3">
+        <v>11336.7644448592</v>
+      </c>
+      <c r="L9" s="3">
         <v>10257.69429433123</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>2564.423573582807</v>
       </c>
-      <c r="I9" s="3">
+      <c r="N9" s="3">
         <v>1204.751821039354</v>
       </c>
-      <c r="J9" s="3">
+      <c r="O9" s="3">
         <v>1415.305540168738</v>
       </c>
-      <c r="K9" s="3">
+      <c r="P9" s="3">
         <v>3759.167627206689</v>
       </c>
-      <c r="L9" s="3">
+      <c r="Q9" s="3">
         <v>48.84608159861521</v>
       </c>
-      <c r="M9" s="3">
+      <c r="R9" s="3">
         <v>6.201395329160901</v>
       </c>
-      <c r="N9" s="3">
+      <c r="S9" s="3">
         <v>43.30757970997428</v>
       </c>
-      <c r="O9" s="3">
+      <c r="T9" s="3">
         <v>56.35300160617668</v>
       </c>
-      <c r="P9" s="1">
+      <c r="U9" s="1">
         <v>204</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="V9" s="1">
         <v>51</v>
       </c>
-      <c r="R9" s="1">
+      <c r="W9" s="1">
         <v>19.27001124372618</v>
       </c>
-      <c r="S9" s="1">
+      <c r="X9" s="1">
         <v>32</v>
       </c>
-      <c r="T9" s="1">
+      <c r="Y9" s="1">
         <v>73</v>
       </c>
-      <c r="U9">
+      <c r="Z9">
         <v>2021</v>
       </c>
-      <c r="V9">
+      <c r="AA9">
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:27">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1">
         <v>71</v>
@@ -1175,60 +1330,75 @@
         <v>0.9436619718309859</v>
       </c>
       <c r="G10" s="3">
+        <v>739083.2057313153</v>
+      </c>
+      <c r="H10" s="3">
+        <v>11031.09262285545</v>
+      </c>
+      <c r="I10" s="3">
+        <v>16426.89481783865</v>
+      </c>
+      <c r="J10" s="3">
+        <v>121.966230288341</v>
+      </c>
+      <c r="K10" s="3">
+        <v>98509.00580243678</v>
+      </c>
+      <c r="L10" s="3">
         <v>482605.551452325</v>
       </c>
-      <c r="H10" s="3">
-        <v>7203.067932124254</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
+        <v>7203.067932124253</v>
+      </c>
+      <c r="N10" s="3">
         <v>10740.02982865865</v>
       </c>
-      <c r="J10" s="3">
+      <c r="O10" s="3">
         <v>35.53279454902379</v>
       </c>
-      <c r="K10" s="3">
+      <c r="P10" s="3">
         <v>55069.70060053065</v>
       </c>
-      <c r="L10" s="3">
-        <v>69.83870009492911</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="Q10" s="3">
+        <v>69.8387000949291</v>
+      </c>
+      <c r="R10" s="3">
         <v>35.4080170462333</v>
       </c>
-      <c r="N10" s="3">
+      <c r="S10" s="3">
         <v>12.19662302883409</v>
       </c>
-      <c r="O10" s="3">
+      <c r="T10" s="3">
         <v>196.4212117364618</v>
       </c>
-      <c r="P10" s="1">
+      <c r="U10" s="1">
         <v>5773</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="V10" s="1">
         <v>86.16417910447761</v>
       </c>
-      <c r="R10" s="1">
+      <c r="W10" s="1">
         <v>108.5202951295182</v>
       </c>
-      <c r="S10" s="1">
+      <c r="X10" s="1">
         <v>1</v>
       </c>
-      <c r="T10" s="1">
+      <c r="Y10" s="1">
         <v>571</v>
       </c>
-      <c r="U10">
+      <c r="Z10">
         <v>2016</v>
       </c>
-      <c r="V10">
+      <c r="AA10">
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:27">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>6</v>
@@ -1243,60 +1413,75 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="G11" s="3">
+        <v>34725.69794905907</v>
+      </c>
+      <c r="H11" s="3">
+        <v>6945.139589811815</v>
+      </c>
+      <c r="I11" s="3">
+        <v>6107.540674039075</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1186.226432478475</v>
+      </c>
+      <c r="K11" s="3">
+        <v>15855.60993748432</v>
+      </c>
+      <c r="L11" s="3">
         <v>21988.60316765299</v>
       </c>
-      <c r="H11" s="3">
+      <c r="M11" s="3">
         <v>4397.720633530598</v>
       </c>
-      <c r="I11" s="3">
+      <c r="N11" s="3">
         <v>2989.457481648521</v>
       </c>
-      <c r="J11" s="3">
+      <c r="O11" s="3">
         <v>620.574607208481</v>
       </c>
-      <c r="K11" s="3">
+      <c r="P11" s="3">
         <v>8364.984297387962</v>
       </c>
-      <c r="L11" s="3">
+      <c r="Q11" s="3">
         <v>65.64033709136109</v>
       </c>
-      <c r="M11" s="3">
+      <c r="R11" s="3">
         <v>14.83568373171277</v>
       </c>
-      <c r="N11" s="3">
+      <c r="S11" s="3">
         <v>52.25756349732896</v>
       </c>
-      <c r="O11" s="3">
+      <c r="T11" s="3">
         <v>91.02088659474175</v>
       </c>
-      <c r="P11" s="1">
+      <c r="U11" s="1">
         <v>336</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="V11" s="1">
         <v>67.2</v>
       </c>
-      <c r="R11" s="1">
+      <c r="W11" s="1">
         <v>47.15612367444974</v>
       </c>
-      <c r="S11" s="1">
+      <c r="X11" s="1">
         <v>10</v>
       </c>
-      <c r="T11" s="1">
+      <c r="Y11" s="1">
         <v>141</v>
       </c>
-      <c r="U11">
+      <c r="Z11">
         <v>2020</v>
       </c>
-      <c r="V11">
+      <c r="AA11">
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:27">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -1311,60 +1496,75 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
+        <v>60828.0989521488</v>
+      </c>
+      <c r="H12" s="3">
+        <v>30414.0494760744</v>
+      </c>
+      <c r="I12" s="3">
+        <v>33878.61534043441</v>
+      </c>
+      <c r="J12" s="3">
+        <v>6458.250831642635</v>
+      </c>
+      <c r="K12" s="3">
+        <v>54369.84812050617</v>
+      </c>
+      <c r="L12" s="3">
         <v>19225.06954124516</v>
       </c>
-      <c r="H12" s="3">
+      <c r="M12" s="3">
         <v>9612.534770622578</v>
       </c>
-      <c r="I12" s="3">
+      <c r="N12" s="3">
         <v>10123.50559357719</v>
       </c>
-      <c r="J12" s="3">
+      <c r="O12" s="3">
         <v>2454.135316024201</v>
       </c>
-      <c r="K12" s="3">
+      <c r="P12" s="3">
         <v>16770.93422522096</v>
       </c>
-      <c r="L12" s="3">
+      <c r="Q12" s="3">
         <v>77.84263902306331</v>
       </c>
-      <c r="M12" s="3">
+      <c r="R12" s="3">
         <v>5.602932423344289</v>
       </c>
-      <c r="N12" s="3">
+      <c r="S12" s="3">
         <v>73.88076751198659</v>
       </c>
-      <c r="O12" s="3">
+      <c r="T12" s="3">
         <v>81.80451053414004</v>
       </c>
-      <c r="P12" s="1">
+      <c r="U12" s="1">
         <v>257</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="V12" s="1">
         <v>128.5</v>
       </c>
-      <c r="R12" s="1">
+      <c r="W12" s="1">
         <v>139.3000358937499</v>
       </c>
-      <c r="S12" s="1">
+      <c r="X12" s="1">
         <v>30</v>
       </c>
-      <c r="T12" s="1">
+      <c r="Y12" s="1">
         <v>227</v>
       </c>
-      <c r="U12">
+      <c r="Z12">
         <v>2019</v>
       </c>
-      <c r="V12">
+      <c r="AA12">
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:27">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
@@ -1379,60 +1579,75 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="G13" s="3">
+        <v>62643.19149722932</v>
+      </c>
+      <c r="H13" s="3">
+        <v>12528.63829944586</v>
+      </c>
+      <c r="I13" s="3">
+        <v>12382.30060484502</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1937.47524949279</v>
+      </c>
+      <c r="K13" s="3">
+        <v>26500.69930411507</v>
+      </c>
+      <c r="L13" s="3">
         <v>22468.65191389971</v>
       </c>
-      <c r="H13" s="3">
+      <c r="M13" s="3">
         <v>4493.730382779941</v>
       </c>
-      <c r="I13" s="3">
+      <c r="N13" s="3">
         <v>5633.184332680242</v>
       </c>
-      <c r="J13" s="3">
+      <c r="O13" s="3">
         <v>100.7591357408707</v>
       </c>
-      <c r="K13" s="3">
+      <c r="P13" s="3">
         <v>12609.40250609754</v>
       </c>
-      <c r="L13" s="3">
-        <v>45.35433730016975</v>
-      </c>
-      <c r="M13" s="3">
+      <c r="Q13" s="3">
+        <v>45.35433730016976</v>
+      </c>
+      <c r="R13" s="3">
         <v>25.46833055396829</v>
       </c>
-      <c r="N13" s="3">
+      <c r="S13" s="3">
         <v>20.15182714817413</v>
       </c>
-      <c r="O13" s="3">
+      <c r="T13" s="3">
         <v>83.50597686157313</v>
       </c>
-      <c r="P13" s="1">
+      <c r="U13" s="1">
         <v>439</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="V13" s="1">
         <v>87.8</v>
       </c>
-      <c r="R13" s="1">
+      <c r="W13" s="1">
         <v>102.1846368100411</v>
       </c>
-      <c r="S13" s="1">
+      <c r="X13" s="1">
         <v>5</v>
       </c>
-      <c r="T13" s="1">
+      <c r="Y13" s="1">
         <v>236</v>
       </c>
-      <c r="U13">
+      <c r="Z13">
         <v>2019</v>
       </c>
-      <c r="V13">
+      <c r="AA13">
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:27">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>26</v>
@@ -1447,60 +1662,75 @@
         <v>0.9615384615384616</v>
       </c>
       <c r="G14" s="3">
-        <v>92454.99065463657</v>
+        <v>108226.6217186999</v>
       </c>
       <c r="H14" s="3">
+        <v>4329.064868747997</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6433.535934650051</v>
+      </c>
+      <c r="J14" s="3">
+        <v>19.0683281232998</v>
+      </c>
+      <c r="K14" s="3">
+        <v>20235.00927773712</v>
+      </c>
+      <c r="L14" s="3">
+        <v>92454.99065463658</v>
+      </c>
+      <c r="M14" s="3">
         <v>3698.199626185463</v>
       </c>
-      <c r="I14" s="3">
+      <c r="N14" s="3">
         <v>8668.485844326315</v>
       </c>
-      <c r="J14" s="3">
+      <c r="O14" s="3">
         <v>81.92716265511525</v>
       </c>
-      <c r="K14" s="3">
+      <c r="P14" s="3">
         <v>37589.60045184651</v>
       </c>
-      <c r="L14" s="3">
+      <c r="Q14" s="3">
         <v>51.46088164215199</v>
       </c>
-      <c r="M14" s="3">
+      <c r="R14" s="3">
         <v>23.24567672487991</v>
       </c>
-      <c r="N14" s="3">
+      <c r="S14" s="3">
         <v>13.05503087794559</v>
       </c>
-      <c r="O14" s="3">
+      <c r="T14" s="3">
         <v>111.3662854612667</v>
       </c>
-      <c r="P14" s="1">
+      <c r="U14" s="1">
         <v>1364</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="V14" s="1">
         <v>54.56</v>
       </c>
-      <c r="R14" s="1">
+      <c r="W14" s="1">
         <v>117.5574611271725</v>
       </c>
-      <c r="S14" s="1">
+      <c r="X14" s="1">
         <v>2</v>
       </c>
-      <c r="T14" s="1">
+      <c r="Y14" s="1">
         <v>539</v>
       </c>
-      <c r="U14">
+      <c r="Z14">
         <v>2016</v>
       </c>
-      <c r="V14">
+      <c r="AA14">
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:27">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1">
         <v>60</v>
@@ -1515,60 +1745,75 @@
         <v>0.9666666666666667</v>
       </c>
       <c r="G15" s="3">
+        <v>566078.1845903501</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9759.968699833624</v>
+      </c>
+      <c r="I15" s="3">
+        <v>26431.11349685365</v>
+      </c>
+      <c r="J15" s="3">
+        <v>46.55761904502517</v>
+      </c>
+      <c r="K15" s="3">
+        <v>198811.9434626772</v>
+      </c>
+      <c r="L15" s="3">
         <v>313526.5261875644</v>
       </c>
-      <c r="H15" s="3">
+      <c r="M15" s="3">
         <v>5405.629761854559</v>
       </c>
-      <c r="I15" s="3">
+      <c r="N15" s="3">
         <v>5143.840720184297</v>
       </c>
-      <c r="J15" s="3">
+      <c r="O15" s="3">
         <v>62.12873233208661</v>
       </c>
-      <c r="K15" s="3">
+      <c r="P15" s="3">
         <v>26068.8331005513</v>
       </c>
-      <c r="L15" s="3">
+      <c r="Q15" s="3">
         <v>61.5562500780191</v>
       </c>
-      <c r="M15" s="3">
+      <c r="R15" s="3">
         <v>23.34464831810631</v>
       </c>
-      <c r="N15" s="3">
+      <c r="S15" s="3">
         <v>16.18065842403185</v>
       </c>
-      <c r="O15" s="3">
+      <c r="T15" s="3">
         <v>138.0184648379384</v>
       </c>
-      <c r="P15" s="1">
+      <c r="U15" s="1">
         <v>4928</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="V15" s="1">
         <v>84.96551724137932</v>
       </c>
-      <c r="R15" s="1">
-        <v>68.49560506255611</v>
-      </c>
-      <c r="S15" s="1">
+      <c r="W15" s="1">
+        <v>68.49560506255612</v>
+      </c>
+      <c r="X15" s="1">
         <v>1</v>
       </c>
-      <c r="T15" s="1">
+      <c r="Y15" s="1">
         <v>328</v>
       </c>
-      <c r="U15">
+      <c r="Z15">
         <v>2017</v>
       </c>
-      <c r="V15">
+      <c r="AA15">
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:27">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1583,60 +1828,75 @@
         <v>0.6</v>
       </c>
       <c r="G16" s="3">
-        <v>29669.49341212535</v>
+        <v>117659.4948292565</v>
       </c>
       <c r="H16" s="3">
+        <v>19609.91580487608</v>
+      </c>
+      <c r="I16" s="3">
+        <v>18205.91356916733</v>
+      </c>
+      <c r="J16" s="3">
+        <v>4262.229723631181</v>
+      </c>
+      <c r="K16" s="3">
+        <v>54319.48382898097</v>
+      </c>
+      <c r="L16" s="3">
+        <v>29669.49341212534</v>
+      </c>
+      <c r="M16" s="3">
         <v>4944.915568687557</v>
       </c>
-      <c r="I16" s="3">
+      <c r="N16" s="3">
         <v>4672.466923867189</v>
       </c>
-      <c r="J16" s="3">
+      <c r="O16" s="3">
         <v>821.5413766761271</v>
       </c>
-      <c r="K16" s="3">
+      <c r="P16" s="3">
         <v>13165.18530167379</v>
       </c>
-      <c r="L16" s="3">
+      <c r="Q16" s="3">
         <v>59.77015408752801</v>
       </c>
-      <c r="M16" s="3">
+      <c r="R16" s="3">
         <v>14.08491272336895</v>
       </c>
-      <c r="N16" s="3">
+      <c r="S16" s="3">
         <v>45.90673655161051</v>
       </c>
-      <c r="O16" s="3">
+      <c r="T16" s="3">
         <v>82.15413766761272</v>
       </c>
-      <c r="P16" s="1">
+      <c r="U16" s="1">
         <v>555</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="V16" s="1">
         <v>92.5</v>
       </c>
-      <c r="R16" s="1">
+      <c r="W16" s="1">
         <v>100.0674772341144</v>
       </c>
-      <c r="S16" s="1">
+      <c r="X16" s="1">
         <v>10</v>
       </c>
-      <c r="T16" s="1">
+      <c r="Y16" s="1">
         <v>284</v>
       </c>
-      <c r="U16">
+      <c r="Z16">
         <v>2017</v>
       </c>
-      <c r="V16">
+      <c r="AA16">
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:27">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1">
         <v>64</v>
@@ -1651,60 +1911,75 @@
         <v>0.921875</v>
       </c>
       <c r="G17" s="3">
-        <v>688481.1307944977</v>
+        <v>654890.5927298913</v>
       </c>
       <c r="H17" s="3">
+        <v>11099.84055474392</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11296.15082346265</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12.32590665307678</v>
+      </c>
+      <c r="K17" s="3">
+        <v>47328.42589029315</v>
+      </c>
+      <c r="L17" s="3">
+        <v>688481.1307944978</v>
+      </c>
+      <c r="M17" s="3">
         <v>11669.17170838132</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>13175.2000948458</v>
       </c>
-      <c r="J17" s="3">
+      <c r="O17" s="3">
         <v>48.18668581314614</v>
       </c>
-      <c r="K17" s="3">
+      <c r="P17" s="3">
         <v>59310.53192065474</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
         <v>82.66311410722277</v>
       </c>
-      <c r="M17" s="3">
-        <v>41.59443116618839</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="R17" s="3">
+        <v>41.5944311661884</v>
+      </c>
+      <c r="S17" s="3">
         <v>20.33774597757668</v>
       </c>
-      <c r="O17" s="3">
+      <c r="T17" s="3">
         <v>201.2220224911509</v>
       </c>
-      <c r="P17" s="1">
+      <c r="U17" s="1">
         <v>9650</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="V17" s="1">
         <v>163.5593220338983</v>
       </c>
-      <c r="R17" s="1">
+      <c r="W17" s="1">
         <v>223.4736944471927</v>
       </c>
-      <c r="S17" s="1">
+      <c r="X17" s="1">
         <v>1</v>
       </c>
-      <c r="T17" s="1">
+      <c r="Y17" s="1">
         <v>1318</v>
       </c>
-      <c r="U17">
+      <c r="Z17">
         <v>2016</v>
       </c>
-      <c r="V17">
+      <c r="AA17">
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:27">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1">
         <v>163</v>
@@ -1719,60 +1994,75 @@
         <v>0.9202453987730062</v>
       </c>
       <c r="G18" s="3">
+        <v>1940871.275322119</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12939.14183548079</v>
+      </c>
+      <c r="I18" s="3">
+        <v>18502.56674915842</v>
+      </c>
+      <c r="J18" s="3">
+        <v>15.08110149769464</v>
+      </c>
+      <c r="K18" s="3">
+        <v>147790.8327903106</v>
+      </c>
+      <c r="L18" s="3">
         <v>2121729.295502074</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>14144.86197001382</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>20277.98370367783</v>
       </c>
-      <c r="J18" s="3">
+      <c r="O18" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="K18" s="3">
+      <c r="P18" s="3">
         <v>142477.5688974962</v>
       </c>
-      <c r="L18" s="3">
+      <c r="Q18" s="3">
         <v>78.50979961663667</v>
       </c>
-      <c r="M18" s="3">
+      <c r="R18" s="3">
         <v>35.09459453111103</v>
       </c>
-      <c r="N18" s="3">
+      <c r="S18" s="3">
         <v>10.77163914429046</v>
       </c>
-      <c r="O18" s="3">
+      <c r="T18" s="3">
         <v>233.3973531230909</v>
       </c>
-      <c r="P18" s="1">
+      <c r="U18" s="1">
         <v>24870</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="V18" s="1">
         <v>165.8</v>
       </c>
-      <c r="R18" s="1">
+      <c r="W18" s="1">
         <v>239.8765062590198</v>
       </c>
-      <c r="S18" s="1">
+      <c r="X18" s="1">
         <v>1</v>
       </c>
-      <c r="T18" s="1">
+      <c r="Y18" s="1">
         <v>2120</v>
       </c>
-      <c r="U18">
+      <c r="Z18">
         <v>2016</v>
       </c>
-      <c r="V18">
+      <c r="AA18">
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:27">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1">
         <v>6</v>
@@ -1787,60 +2077,75 @@
         <v>0.5</v>
       </c>
       <c r="G19" s="3">
-        <v>25188.92013154799</v>
+        <v>49572.00061100721</v>
       </c>
       <c r="H19" s="3">
+        <v>16524.00020366907</v>
+      </c>
+      <c r="I19" s="3">
+        <v>8424.0033050452</v>
+      </c>
+      <c r="J19" s="3">
+        <v>8470.767134047888</v>
+      </c>
+      <c r="K19" s="3">
+        <v>25275.32937822637</v>
+      </c>
+      <c r="L19" s="3">
+        <v>25188.92013154798</v>
+      </c>
+      <c r="M19" s="3">
         <v>8396.306710515995</v>
       </c>
-      <c r="I19" s="3">
+      <c r="N19" s="3">
         <v>11215.06954660676</v>
       </c>
-      <c r="J19" s="3">
+      <c r="O19" s="3">
         <v>148.238424845838</v>
       </c>
-      <c r="K19" s="3">
+      <c r="P19" s="3">
         <v>21166.42737277812</v>
       </c>
-      <c r="L19" s="3">
+      <c r="Q19" s="3">
         <v>82.28079522919644</v>
       </c>
-      <c r="M19" s="3">
+      <c r="R19" s="3">
         <v>10.15766237346972</v>
       </c>
-      <c r="N19" s="3">
+      <c r="S19" s="3">
         <v>74.11921242291902</v>
       </c>
-      <c r="O19" s="3">
+      <c r="T19" s="3">
         <v>93.65675828662884</v>
       </c>
-      <c r="P19" s="1">
+      <c r="U19" s="1">
         <v>277</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="V19" s="1">
         <v>92.33333333333333</v>
       </c>
-      <c r="R19" s="1">
+      <c r="W19" s="1">
         <v>118.1199954848176</v>
       </c>
-      <c r="S19" s="1">
+      <c r="X19" s="1">
         <v>2</v>
       </c>
-      <c r="T19" s="1">
+      <c r="Y19" s="1">
         <v>226</v>
       </c>
-      <c r="U19">
+      <c r="Z19">
         <v>2016</v>
       </c>
-      <c r="V19">
+      <c r="AA19">
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:27">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1">
         <v>4</v>
@@ -1855,60 +2160,75 @@
         <v>1</v>
       </c>
       <c r="G20" s="3">
+        <v>47325.69421677459</v>
+      </c>
+      <c r="H20" s="3">
+        <v>11831.42355419365</v>
+      </c>
+      <c r="I20" s="3">
+        <v>7800.88611806675</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1317.015276844863</v>
+      </c>
+      <c r="K20" s="3">
+        <v>19345.72561005216</v>
+      </c>
+      <c r="L20" s="3">
         <v>5636.427833217705</v>
       </c>
-      <c r="H20" s="3">
+      <c r="M20" s="3">
         <v>1409.106958304426</v>
       </c>
-      <c r="I20" s="3">
+      <c r="N20" s="3">
         <v>1366.75204958783</v>
       </c>
-      <c r="J20" s="3">
+      <c r="O20" s="3">
         <v>131.7015276844863</v>
       </c>
-      <c r="K20" s="3">
+      <c r="P20" s="3">
         <v>3310.9589268623</v>
       </c>
-      <c r="L20" s="3">
+      <c r="Q20" s="3">
         <v>41.02094512827082</v>
       </c>
-      <c r="M20" s="3">
+      <c r="R20" s="3">
         <v>18.86799504524634</v>
       </c>
-      <c r="N20" s="3">
+      <c r="S20" s="3">
         <v>21.99487001791516</v>
       </c>
-      <c r="O20" s="3">
+      <c r="T20" s="3">
         <v>65.85076384224313</v>
       </c>
-      <c r="P20" s="1">
+      <c r="U20" s="1">
         <v>157</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="V20" s="1">
         <v>39.25</v>
       </c>
-      <c r="R20" s="1">
+      <c r="W20" s="1">
         <v>29.91515780781821</v>
       </c>
-      <c r="S20" s="1">
+      <c r="X20" s="1">
         <v>2</v>
       </c>
-      <c r="T20" s="1">
+      <c r="Y20" s="1">
         <v>75</v>
       </c>
-      <c r="U20">
+      <c r="Z20">
         <v>2019</v>
       </c>
-      <c r="V20">
+      <c r="AA20">
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:27">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>142</v>
@@ -1923,60 +2243,75 @@
         <v>0.9929577464788732</v>
       </c>
       <c r="G21" s="3">
+        <v>1694424.07293141</v>
+      </c>
+      <c r="H21" s="3">
+        <v>12017.19200660574</v>
+      </c>
+      <c r="I21" s="3">
+        <v>13469.4178021456</v>
+      </c>
+      <c r="J21" s="3">
+        <v>22.09062808309778</v>
+      </c>
+      <c r="K21" s="3">
+        <v>81328.38456341528</v>
+      </c>
+      <c r="L21" s="3">
         <v>1762708.325463907</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>12501.47748555963</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>18586.72140114071</v>
       </c>
-      <c r="J21" s="3">
+      <c r="O21" s="3">
         <v>57.99079237651673</v>
       </c>
-      <c r="K21" s="3">
+      <c r="P21" s="3">
         <v>118699.0415875544</v>
       </c>
-      <c r="L21" s="3">
-        <v>81.78942383109759</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="Q21" s="3">
+        <v>81.78942383109761</v>
+      </c>
+      <c r="R21" s="3">
         <v>45.73065301198442</v>
       </c>
-      <c r="N21" s="3">
+      <c r="S21" s="3">
         <v>18.89233795141325</v>
       </c>
-      <c r="O21" s="3">
+      <c r="T21" s="3">
         <v>306.2848483936102</v>
       </c>
-      <c r="P21" s="1">
+      <c r="U21" s="1">
         <v>18138</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="V21" s="1">
         <v>128.6382978723404</v>
       </c>
-      <c r="R21" s="1">
-        <v>153.2010945781367</v>
-      </c>
-      <c r="S21" s="1">
+      <c r="W21" s="1">
+        <v>153.2010945781368</v>
+      </c>
+      <c r="X21" s="1">
         <v>1</v>
       </c>
-      <c r="T21" s="1">
+      <c r="Y21" s="1">
         <v>1004</v>
       </c>
-      <c r="U21">
+      <c r="Z21">
         <v>2016</v>
       </c>
-      <c r="V21">
+      <c r="AA21">
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:27">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1991,60 +2326,75 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="G22" s="3">
+        <v>209424.1388432777</v>
+      </c>
+      <c r="H22" s="3">
+        <v>11634.67438018209</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8432.515228486465</v>
+      </c>
+      <c r="J22" s="3">
+        <v>602.2207793633493</v>
+      </c>
+      <c r="K22" s="3">
+        <v>28298.76053795065</v>
+      </c>
+      <c r="L22" s="3">
         <v>88617.5736674378</v>
       </c>
-      <c r="H22" s="3">
+      <c r="M22" s="3">
         <v>4923.198537079877</v>
       </c>
-      <c r="I22" s="3">
+      <c r="N22" s="3">
         <v>7139.533993181093</v>
       </c>
-      <c r="J22" s="3">
+      <c r="O22" s="3">
         <v>42.00986548030816</v>
       </c>
-      <c r="K22" s="3">
+      <c r="P22" s="3">
         <v>28385.54066619448</v>
       </c>
-      <c r="L22" s="3">
+      <c r="Q22" s="3">
         <v>85.51665070147128</v>
       </c>
-      <c r="M22" s="3">
-        <v>52.63790605978169</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="R22" s="3">
+        <v>52.6379060597817</v>
+      </c>
+      <c r="S22" s="3">
         <v>21.00493274015408</v>
       </c>
-      <c r="O22" s="3">
+      <c r="T22" s="3">
         <v>254.2443749773306</v>
       </c>
-      <c r="P22" s="1">
+      <c r="U22" s="1">
         <v>1224</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="V22" s="1">
         <v>68</v>
       </c>
-      <c r="R22" s="1">
+      <c r="W22" s="1">
         <v>98.6216776074999</v>
       </c>
-      <c r="S22" s="1">
+      <c r="X22" s="1">
         <v>1</v>
       </c>
-      <c r="T22" s="1">
+      <c r="Y22" s="1">
         <v>344</v>
       </c>
-      <c r="U22">
+      <c r="Z22">
         <v>2016</v>
       </c>
-      <c r="V22">
+      <c r="AA22">
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:27">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1">
         <v>2</v>
@@ -2059,60 +2409,75 @@
         <v>0.5</v>
       </c>
       <c r="G23" s="3">
-        <v>2029.958266796635</v>
+        <v>5044.627899594023</v>
       </c>
       <c r="H23" s="3">
-        <v>2029.958266796635</v>
+        <v>5044.627899594023</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>5044.627899594023</v>
+      </c>
+      <c r="K23" s="3">
+        <v>5044.627899594023</v>
+      </c>
+      <c r="L23" s="3">
         <v>2029.958266796635</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2029.958266796635</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>2029.958266796635</v>
+      </c>
+      <c r="P23" s="3">
+        <v>2029.958266796635</v>
+      </c>
+      <c r="Q23" s="3">
         <v>36.90833212357519</v>
       </c>
-      <c r="M23" s="3">
+      <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3">
+      <c r="S23" s="3">
         <v>36.90833212357519</v>
       </c>
-      <c r="O23" s="3">
+      <c r="T23" s="3">
         <v>36.90833212357519</v>
       </c>
-      <c r="P23" s="1">
+      <c r="U23" s="1">
         <v>55</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="V23" s="1">
         <v>55</v>
       </c>
-      <c r="R23" s="1">
+      <c r="W23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="1">
+      <c r="X23" s="1">
         <v>55</v>
       </c>
-      <c r="T23" s="1">
+      <c r="Y23" s="1">
         <v>55</v>
       </c>
-      <c r="U23">
+      <c r="Z23">
         <v>2023</v>
       </c>
-      <c r="V23">
+      <c r="AA23">
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1">
         <v>766</v>
@@ -2127,51 +2492,66 @@
         <v>0.9556135770234987</v>
       </c>
       <c r="G24" s="3">
+        <v>8330094.108307494</v>
+      </c>
+      <c r="H24" s="3">
+        <v>11379.90998402663</v>
+      </c>
+      <c r="I24" s="3">
+        <v>16894.95935624592</v>
+      </c>
+      <c r="J24" s="3">
+        <v>12.04441558726698</v>
+      </c>
+      <c r="K24" s="3">
+        <v>156813.3168190974</v>
+      </c>
+      <c r="L24" s="3">
         <v>12045946.34300122</v>
       </c>
-      <c r="H24" s="3">
+      <c r="M24" s="3">
         <v>16456.21085109456</v>
       </c>
-      <c r="I24" s="3">
+      <c r="N24" s="3">
         <v>44170.98264290044</v>
       </c>
-      <c r="J24" s="3">
+      <c r="O24" s="3">
         <v>23.05352861032933</v>
       </c>
-      <c r="K24" s="3">
+      <c r="P24" s="3">
         <v>708972.7845446636</v>
       </c>
-      <c r="L24" s="3">
+      <c r="Q24" s="3">
         <v>80.55678320085916</v>
       </c>
-      <c r="M24" s="3">
+      <c r="R24" s="3">
         <v>41.26322575364973</v>
       </c>
-      <c r="N24" s="3">
+      <c r="S24" s="3">
         <v>11.52676430516467</v>
       </c>
-      <c r="O24" s="3">
+      <c r="T24" s="3">
         <v>461.5197709071476</v>
       </c>
-      <c r="P24" s="1">
+      <c r="U24" s="1">
         <v>127373</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="V24" s="1">
         <v>174.0068306010929</v>
       </c>
-      <c r="R24" s="1">
+      <c r="W24" s="1">
         <v>419.7037665583493</v>
       </c>
-      <c r="S24" s="1">
+      <c r="X24" s="1">
         <v>1</v>
       </c>
-      <c r="T24" s="1">
+      <c r="Y24" s="1">
         <v>7954</v>
       </c>
-      <c r="U24">
+      <c r="Z24">
         <v>2016</v>
       </c>
-      <c r="V24">
+      <c r="AA24">
         <v>2023</v>
       </c>
     </row>
